--- a/Areport_PDF/2022A/2022A.xlsx
+++ b/Areport_PDF/2022A/2022A.xlsx
@@ -1120,12 +1120,8 @@
       <c r="AC4" s="12" t="n">
         <v>700000000</v>
       </c>
-      <c r="AD4" s="12" t="n">
-        <v>84</v>
-      </c>
-      <c r="AE4" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="AD4" s="12" t="inlineStr"/>
+      <c r="AE4" s="12" t="inlineStr"/>
       <c r="AF4" s="12" t="n"/>
       <c r="AG4" s="12" t="n"/>
     </row>
@@ -1310,12 +1306,8 @@
       <c r="AC6" s="12" t="n">
         <v>300000000</v>
       </c>
-      <c r="AD6" s="12" t="n">
-        <v>3716</v>
-      </c>
-      <c r="AE6" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="AD6" s="12" t="inlineStr"/>
+      <c r="AE6" s="12" t="inlineStr"/>
       <c r="AF6" s="12" t="n"/>
       <c r="AG6" s="12" t="n"/>
     </row>
@@ -1405,12 +1397,8 @@
       <c r="AC7" s="12" t="n">
         <v>800000000</v>
       </c>
-      <c r="AD7" s="12" t="n">
-        <v>1931</v>
-      </c>
-      <c r="AE7" s="12" t="n">
-        <v>0.000241</v>
-      </c>
+      <c r="AD7" s="12" t="inlineStr"/>
+      <c r="AE7" s="12" t="inlineStr"/>
       <c r="AF7" s="12" t="n"/>
       <c r="AG7" s="12" t="n"/>
     </row>
@@ -1498,12 +1486,8 @@
       <c r="AC8" s="12" t="n">
         <v>600000000</v>
       </c>
-      <c r="AD8" s="12" t="n">
-        <v>14573</v>
-      </c>
-      <c r="AE8" s="12" t="n">
-        <v>0.0024</v>
-      </c>
+      <c r="AD8" s="12" t="inlineStr"/>
+      <c r="AE8" s="12" t="inlineStr"/>
       <c r="AF8" s="12" t="n"/>
       <c r="AG8" s="12" t="n"/>
     </row>
@@ -1589,12 +1573,8 @@
       <c r="AC9" s="12" t="n">
         <v>500000000</v>
       </c>
-      <c r="AD9" s="12" t="n">
-        <v>1564</v>
-      </c>
-      <c r="AE9" s="12" t="n">
-        <v>0.000313</v>
-      </c>
+      <c r="AD9" s="12" t="inlineStr"/>
+      <c r="AE9" s="12" t="inlineStr"/>
       <c r="AF9" s="12" t="n"/>
       <c r="AG9" s="12" t="n"/>
     </row>
@@ -1686,12 +1666,8 @@
       <c r="AC10" s="12" t="n">
         <v>100000000</v>
       </c>
-      <c r="AD10" s="12" t="n">
-        <v>307</v>
-      </c>
-      <c r="AE10" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="AD10" s="12" t="inlineStr"/>
+      <c r="AE10" s="12" t="inlineStr"/>
       <c r="AF10" s="12" t="n"/>
       <c r="AG10" s="12" t="n"/>
     </row>
@@ -1783,12 +1759,8 @@
       <c r="AC11" s="12" t="n">
         <v>500000000</v>
       </c>
-      <c r="AD11" s="12" t="n">
-        <v>19188</v>
-      </c>
-      <c r="AE11" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="AD11" s="12" t="inlineStr"/>
+      <c r="AE11" s="12" t="inlineStr"/>
       <c r="AF11" s="12" t="n"/>
       <c r="AG11" s="12" t="n"/>
     </row>
@@ -1880,12 +1852,8 @@
       <c r="AC12" s="12" t="n">
         <v>500000000</v>
       </c>
-      <c r="AD12" s="12" t="n">
-        <v>58</v>
-      </c>
-      <c r="AE12" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="AD12" s="12" t="inlineStr"/>
+      <c r="AE12" s="12" t="inlineStr"/>
       <c r="AF12" s="12" t="n"/>
       <c r="AG12" s="12" t="n"/>
     </row>
@@ -2066,12 +2034,8 @@
       <c r="AC14" s="12" t="n">
         <v>500000000</v>
       </c>
-      <c r="AD14" s="12" t="n">
-        <v>175</v>
-      </c>
-      <c r="AE14" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="AD14" s="12" t="inlineStr"/>
+      <c r="AE14" s="12" t="inlineStr"/>
       <c r="AF14" s="12" t="n"/>
       <c r="AG14" s="12" t="n"/>
     </row>
@@ -2161,12 +2125,8 @@
       <c r="AC15" s="12" t="n">
         <v>1000000000</v>
       </c>
-      <c r="AD15" s="12" t="n">
-        <v>7732</v>
-      </c>
-      <c r="AE15" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="AD15" s="12" t="inlineStr"/>
+      <c r="AE15" s="12" t="inlineStr"/>
       <c r="AF15" s="12" t="n"/>
       <c r="AG15" s="12" t="n"/>
     </row>
@@ -2252,12 +2212,8 @@
       <c r="AC16" s="12" t="n">
         <v>200000000</v>
       </c>
-      <c r="AD16" s="12" t="n">
-        <v>23548</v>
-      </c>
-      <c r="AE16" s="12" t="n">
-        <v>0.0118</v>
-      </c>
+      <c r="AD16" s="12" t="inlineStr"/>
+      <c r="AE16" s="12" t="inlineStr"/>
       <c r="AF16" s="12" t="n"/>
       <c r="AG16" s="12" t="n"/>
     </row>
@@ -2345,12 +2301,8 @@
       <c r="AC17" s="12" t="n">
         <v>900000000</v>
       </c>
-      <c r="AD17" s="12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE17" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="AD17" s="12" t="inlineStr"/>
+      <c r="AE17" s="12" t="inlineStr"/>
       <c r="AF17" s="12" t="n"/>
       <c r="AG17" s="12" t="n"/>
     </row>
@@ -2440,12 +2392,8 @@
       <c r="AC18" s="12" t="n">
         <v>1500000000</v>
       </c>
-      <c r="AD18" s="12" t="n">
-        <v>1186</v>
-      </c>
-      <c r="AE18" s="12" t="n">
-        <v>0.0001</v>
-      </c>
+      <c r="AD18" s="12" t="inlineStr"/>
+      <c r="AE18" s="12" t="inlineStr"/>
       <c r="AF18" s="12" t="n"/>
       <c r="AG18" s="12" t="n"/>
     </row>
@@ -2533,12 +2481,8 @@
       <c r="AC19" s="12" t="n">
         <v>500000000</v>
       </c>
-      <c r="AD19" s="12" t="n">
-        <v>1140</v>
-      </c>
-      <c r="AE19" s="12" t="n">
-        <v>0.0002</v>
-      </c>
+      <c r="AD19" s="12" t="inlineStr"/>
+      <c r="AE19" s="12" t="inlineStr"/>
       <c r="AF19" s="12" t="n"/>
       <c r="AG19" s="12" t="n"/>
     </row>
@@ -2624,12 +2568,8 @@
       <c r="AC20" s="12" t="n">
         <v>500000000</v>
       </c>
-      <c r="AD20" s="12" t="n">
-        <v>3018</v>
-      </c>
-      <c r="AE20" s="12" t="n">
-        <v>0</v>
-      </c>
+      <c r="AD20" s="12" t="inlineStr"/>
+      <c r="AE20" s="12" t="inlineStr"/>
       <c r="AF20" s="12" t="n"/>
       <c r="AG20" s="12" t="n"/>
     </row>
@@ -2717,12 +2657,8 @@
       <c r="AC21" s="12" t="n">
         <v>500000000</v>
       </c>
-      <c r="AD21" s="12" t="n">
-        <v>20973</v>
-      </c>
-      <c r="AE21" s="12" t="n">
-        <v>0.0042</v>
-      </c>
+      <c r="AD21" s="12" t="inlineStr"/>
+      <c r="AE21" s="12" t="inlineStr"/>
       <c r="AF21" s="12" t="n"/>
       <c r="AG21" s="12" t="n"/>
     </row>
